--- a/Config.xlsx
+++ b/Config.xlsx
@@ -3390,7 +3390,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="18">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -3399,6 +3399,48 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -4225,15 +4267,15 @@
   </x:sheetData>
   <x:phoneticPr fontId="4"/>
   <x:hyperlinks>
-    <x:hyperlink ref="B10" r:id="rId9"/>
-    <x:hyperlink ref="B11" r:id="rId10"/>
+    <x:hyperlink ref="B10" r:id="rId11"/>
+    <x:hyperlink ref="B11" r:id="rId14"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId3"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId8"/>
+    <x:tablePart r:id="rId10"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -7816,7 +7858,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId11"/>
+    <x:tablePart r:id="rId15"/>
   </x:tableParts>
 </x:worksheet>
 </file>